--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/fr_FR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/fr_FR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5147">
   <si>
     <t>translation_group</t>
   </si>
@@ -15412,12 +15412,6 @@
   </si>
   <si>
     <t xml:space="preserve"> notifications</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15804,17 +15798,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54461,18 +54455,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5131</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5132</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54482,10 +54468,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="D2763" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54496,10 +54482,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
       <c r="D2764" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54510,10 +54496,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="D2765" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54524,10 +54510,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
       <c r="D2766" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54538,10 +54524,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
       <c r="D2767" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54552,10 +54538,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
       <c r="D2768" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54566,10 +54552,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
       <c r="D2769" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54608,11 +54594,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
       <c r="D2772" t="s">
-        <v>5148</v>
-      </c>
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/fr_FR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/fr_FR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5808">
   <si>
     <t>translation_group</t>
   </si>
@@ -9998,7 +9998,7 @@
     <t>Paramètres de référencement</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Remplissez les champs pour obtenir un maximum de résultats lors de la recherche de votre site Web dans les moteurs de recherche.</t>
@@ -16861,6 +16861,598 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Bienvenue chez Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Utilisez Microweber pour créer votre site Web, votre boutique en ligne ou votre blog.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Créez et éditez du contenu, vendez en ligne, gérez les commandes et les clients.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Chariot abandonné</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Vous utilisez ce modèle.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Le changement n'affectera que la page actuelle.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Autoriser plusieurs modèles</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Si vous autorisez plusieurs modèles, vous pourrez utiliser différents modèles lorsque vous créez une nouvelle page.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Paramètres du site Web de messagerie système</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Envoyez des messages liés à la nouvelle inscription, aux réinitialisations de mot de passe et à d'autres fonctionnalités du système.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>De l'adresse e-mail</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex. Nom de votre site Web</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Paramètres généraux du fournisseur de messagerie</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Configurez votre fournisseur de messagerie.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Le fournisseur de messagerie général livrera tous les messages liés au site Web. Y compris les messages système et les messages du formulaire de contact.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo du site Web</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Sélectionnez un logo pour votre site Web.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Télécharger le logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Favicon du site Web</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Changement de la langue par défaut.</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Vider le cache..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Installer le module multilingue</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Les utilisateurs enregistrés peuvent recevoir automatiquement un e-mail de votre part. Consultez les paramètres et publiez vos messages.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Envoyer un e-mail lors de l'enregistrement d'un nouvel utilisateur aux administrateurs</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Voulez-vous que les administrateurs reçoivent un e-mail lorsqu'un nouvel utilisateur est enregistré?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber est un constructeur de sites Web et un CMS open source gratuits. Il est sous licence MIT et nous utilisons le framework PHP Laravel</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Un curseur</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Expédition à l'adresse</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Prise en charge à l'adresse</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Paramètres globaux</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Vous n'avez pas de configuration de messagerie système ni de smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Configurez vos paramètres système ici.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Paramètres globaux du formulaire de contact</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Options d'envoi d'e-mails</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Expéditeur global</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Utiliser les paramètres d'expéditeur personnalisés</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Utilisez les paramètres d'expéditeur personnalisés pour les formulaires de contact globaux.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Par défaut, nous utiliserons les paramètres de messagerie du système du site Web.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Vous pouvez modifier les paramètres de messagerie du système ici.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Récepteurs mondiaux</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Envoyer les données des formulaires de contact aux destinataires mondiaux lorsqu'ils sont soumis</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Aux adresses e-mail</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Adresse e-mail des destinataires séparés par un coma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Contactez votre hébergeur pour activer l'extension PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Éléments</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>il y a 2 mois</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Supprimer le favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Personnalisé</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProduitsV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Chronologie</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Marque blanche WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Le modèle de module a changé</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Versions de contenu</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Dispositions et éléments par défaut</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Liste des flèches</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Liste vérifiée</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Texte d'arrière-plan</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titre avec texte</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Icône avec texte</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Deux colonnes de texte</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Deux colonnes de texte avec icône et titre</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Image avec titre et texte</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Texte avec image et titre</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Activer les commentaires</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Paramètres du captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurez vos préférences de captcha à partir de </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Paramètres actuels du formulaire de contact</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Nom du formulaire de contact</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Quel est le nom de ce formulaire de contact?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Récepteurs</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Envoyer les données du formulaire de contact aux destinataires personnalisés lors de leur soumission</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Utilisez les paramètres de destinataire personnalisés pour le formulaire de contact actuel.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Par défaut, nous utiliserons les paramètres globaux du formulaire de contact.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Vous pouvez modifier les paramètres généraux du formulaire de contact ici.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Message de réponse automatique à l'utilisateur</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Activer le message de réponse automatique à l'utilisateur</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Autoriser les utilisateurs à recevoir des «e-mails de remerciement après l'abonnement».</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Objet de la réponse automatique</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Expéditeur personnalisé de réponse automatique</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Utilisez les paramètres d'expéditeur personnalisés pour le formulaire de contact actuel.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Réponse automatique à partir de l'adresse e-mail</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Réponse automatique à partir du nom</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Réponse automatique aux e-mails</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Lorsque l'utilisateur reçoit le message de réponse automatique, il peut répondre pour répondre à l'e-mail.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Réponse automatique aux pièces jointes aux e-mails</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Vous n'avez pas encore de posts</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Créez votre premier message dès maintenant.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Créer un message</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Comment rédiger des descriptions de produits qui se vendent
+                                                    L'une des meilleures choses que vous puissiez faire pour assurer le succès de votre magasin est de consacrer du temps à la rédaction de descriptions de produits de qualité. Vous souhaitez fournir des informations détaillées mais concises qui inciteront les clients potentiels à acheter.
+                                                    Pensez comme un consommateur
+                                                    Pensez à ce que vous voudriez savoir en tant que consommateur, puis incluez ces fonctionnalités dans votre description. Pour les vêtements: matières et coupe. Pour la nourriture: ingrédients et mode de préparation. Les puces sont vos amis lorsque vous répertoriez
+                                                   fonctionnalités - essayez de
+                                                            limiter chacune à 5 à 8 mots.</t>
   </si>
 </sst>
 </file>
@@ -17199,7 +17791,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67507,6 +68099,1757 @@
         <v>3566</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5614</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5615</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5616</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5617</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5618</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5619</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5620</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5621</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5622</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5623</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5625</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5626</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5627</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5628</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5629</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5630</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5631</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5632</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5633</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5634</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5635</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5636</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5637</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5638</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5639</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5640</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5641</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5642</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5643</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5644</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5645</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5646</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5647</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5648</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5649</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5650</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5651</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5652</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5653</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5654</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5655</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5656</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5657</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5658</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5659</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5660</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3777</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5666</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5668</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5669</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5672</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5674</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5677</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5679</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5681</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5685</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5687</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5689</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5690</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5691</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5692</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5693</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5697</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5699</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5703</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5715</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4866</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>798</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4161</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5805</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/fr_FR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/fr_FR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5917">
   <si>
     <t>translation_group</t>
   </si>
@@ -16887,7 +16887,7 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Chariot abandonné</t>
+    <t>Panier abandonné</t>
   </si>
   <si>
     <t>You are using this template.</t>
@@ -16971,7 +16971,7 @@
     <t>Upload logo</t>
   </si>
   <si>
-    <t>Télécharger le logo</t>
+    <t>Importer le logo</t>
   </si>
   <si>
     <t>Website Favicon</t>
@@ -17004,19 +17004,19 @@
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Les utilisateurs enregistrés peuvent recevoir automatiquement un e-mail de votre part. Consultez les paramètres et publiez vos messages.</t>
+    <t>Les utilisateurs inscrits peuvent recevoir automatiquement un e-mail de votre part. Consultez les paramètres et publiez vos messages.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Envoyer un e-mail lors de l'enregistrement d'un nouvel utilisateur aux administrateurs</t>
+    <t>Envoyer un e-mail lors de l'inscription d'un nouvel utilisateur aux administrateurs</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Voulez-vous que les administrateurs reçoivent un e-mail lorsqu'un nouvel utilisateur est enregistré?</t>
+    <t>Voulez-vous que les administrateurs reçoivent un e-mail lorsqu'un nouvel utilisateur est inscrit ?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
@@ -17028,7 +17028,7 @@
     <t>A Slider</t>
   </si>
   <si>
-    <t>Un curseur</t>
+    <t>Un carousel</t>
   </si>
   <si>
     <t>Shipping to address</t>
@@ -17127,7 +17127,7 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Adresse e-mail des destinataires séparés par un coma.</t>
+    <t>Adresse e-mail des destinataires séparés par une virgule.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
@@ -17304,7 +17304,7 @@
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Quel est le nom de ce formulaire de contact?</t>
+    <t>Quel est le nom de ce formulaire de contact ?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17346,7 +17346,7 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Activer le message de réponse automatique à l'utilisateur</t>
+    <t>Activer la réponse automatique à l'utilisateur</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
@@ -17415,22 +17415,25 @@
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>Si vous souhaitez joindre des images 'opengraph', vous devez les importer dans la galerie à partir de `` Ajouter un média ''</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Vous n'avez pas encore de posts</t>
+    <t>Vous n'avez pas encore d'articles</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Créez votre premier message dès maintenant.</t>
+    <t>Créez votre premier article dès maintenant.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Créer un message</t>
+    <t>Écrire un article</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17458,331 +17461,280 @@
     <t>Langue d'administration</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Ajouter un article</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Ajouter une sous-page</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Catégorie supprimée</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Catégories de recherche</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Créer du contenu</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Carte</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Quelconque</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Description de l'identifiant</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>Identifiant Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Limite</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Voulez-vous vraiment supprimer ?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Vous n'avez aucun produit dans</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Retour à</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>catégories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Les champs personnalisés sont enregistrés</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Champs existants</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Choisissez parmi vos champs existants ci-dessous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ajouter de nouveaux champs</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Ajouter un nouveau champ personnalisé à partir de la liste ci-dessous</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vos champs</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Liste de vos champs personnalisés ajoutés</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stocker</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Système</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Redirection du navigateur</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>L'intégration</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Outil d'import-export</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Outil de mise à jour autonome</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Aperçu du package</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Démo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Utiliser</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Courant</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Exprimer</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Première classe</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Cliquez et collectez</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Arrière-plan vidéo</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Multi-langue</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Vous pouvez activer le module multilingue pour utiliser plusieurs langues</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Mode multilingue</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Activez le mode multilingue pour avoir plusieurs langues pour votre contenu.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Les traductions sont importées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traductions introuvables dans la base de données. Souhaitez-vous importer des traductions ? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Votre panier est vide.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Éditeur de code</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titres</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titres 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titres 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titres 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titres 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titres 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titres 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titres 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titres 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>bloc de texte</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Bloc de texte 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Bloc de texte 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Bloc de texte 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Bloc de texte 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Bloc de texte 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Bloc de texte 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Bloc de texte 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Bloc de texte 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Bloc de texte 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Bloc de texte 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Bloc de texte 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Bloc de texte 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Bloc de texte 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Bloc de texte 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Bloc de texte 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>fonctionnalités</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Caractéristiques 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Caractéristiques 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Caractéristiques 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Caractéristiques 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>grilles</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>pieds de page</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Pieds de page 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Pieds de page 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Pieds de page 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Pieds de page 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>autre</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>tarification</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Tarification 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Dispositions par défaut</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Aucun contenu ici</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Les champs personnalisés sont enregistrés</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Champs existants</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Choisissez parmi vos champs existants ci-dessous</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ajouter de nouveaux champs</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Ajouter un nouveau champ personnalisé à partir de la liste ci-dessous</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Vos champs</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Liste de vos champs personnalisés ajoutés</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nouvelle importation</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -17828,495 +17780,6 @@
   </si>
   <si>
     <t>Styles de rechargement</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Liens vers</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Aperçu du package</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Démo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Utiliser</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Courant</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Réorganiser</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Système</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Redirection du navigateur</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>L'intégration</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Outil de mise à jour autonome</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Vous avez besoin d'une clé de licence pour installer ce package</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Ce package est premium et vous devez avoir une clé de licence pour l'installer</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Vous avez besoin d'une clé de licence</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licence activée</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Page de rechargement</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licence non activée</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Mises à jour système</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Vérifier les mises à jour du système</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Retour à la liste</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>La catégorie doit avoir un nom</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>La catégorie est-elle masquée ?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Si vous réglez cette option sur OUI, cette catégorie sera masquée sur le site Web</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Mentionnant</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Votre panier est vide.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Résultats trouvés</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Si vous choisissez le pourcentage dans le champ de sélection, il sera calculé automatiquement à partir du prix et du prix de l'offre du produit.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Passer à la caisse</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Affichage</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>résultats)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Titre de la page - Fil d'Ariane droit</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Titre de la page - Fil d'Ariane gauche</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Conditions d'utilisation</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Livraison et retours</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Environ 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Environ 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Environ 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Maison 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Accueil 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Vous devez cliquer sur le bouton Appliquer le modèle pour modifier votre modèle</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Recherche par critères</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>numéro de commande</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Dater de</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Définir les commandes à partir de la date</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Date à</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Définissez les commandes à ce jour</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Montant de la commande de</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Afficher la commande avec un montant minimum</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Montant de la commande à</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Afficher la commande avec le montant maximum</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Rechercher par produits...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Rechercher par produits</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Statut de paiement</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Recherche gratuite par téléphone, nom, email etc...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Soumettre ce critère</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Réinitialiser le filtre</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Tout exporter</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Sélectionnez le tri</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Date de commande</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nouveau &gt; Ancien]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Ancien &gt; Nouveau]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Haut &gt; Bas]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Bas &gt; Haut]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>des traductions du module multilingue ont été trouvées dans votre base de données.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Avertissement! Changer la langue par défaut peut interrompre les traductions sur votre site.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Voulez-vous vraiment continuer ?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Avertissement! Le changement de langue par défaut cassera peut-être votre site.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Les détails d'expédition</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>la commande n'est pas encore finalisée</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>la commande est terminée</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Créé à</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Mis à jour à</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aperçu rapide </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Remplacer les valeurs de langue</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Les traductions sont importées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traductions introuvables dans la base de données. Souhaitez-vous importer des traductions ? </t>
   </si>
 </sst>
 </file>
@@ -18652,7 +18115,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70640,7 +70103,7 @@
         <v>5797</v>
       </c>
       <c r="D3058" t="s">
-        <v>4160</v>
+        <v>5798</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70654,10 +70117,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D3059" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70671,10 +70134,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D3060" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70688,10 +70151,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3061" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70702,13 +70165,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="C3062" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="D3062" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70722,10 +70185,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="D3063" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70739,10 +70202,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="D3064" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70756,10 +70219,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="D3065" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70773,10 +70236,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="D3066" t="s">
-        <v>5813</v>
+        <v>5815</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70790,10 +70253,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5814</v>
+        <v>5816</v>
       </c>
       <c r="D3067" t="s">
-        <v>5815</v>
+        <v>961</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70807,10 +70270,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="D3068" t="s">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70824,10 +70287,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5818</v>
+        <v>5819</v>
       </c>
       <c r="D3069" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -70841,10 +70304,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="D3070" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -70858,10 +70321,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="D3071" t="s">
-        <v>5823</v>
+        <v>5824</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -70875,10 +70338,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5824</v>
+        <v>5825</v>
       </c>
       <c r="D3072" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -70892,10 +70355,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="D3073" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -70909,10 +70372,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="D3074" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -70926,10 +70389,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="D3075" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -70943,10 +70406,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="D3076" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -70960,10 +70423,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="D3077" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -70977,10 +70440,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="D3078" t="s">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -70994,10 +70457,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="D3079" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71011,10 +70474,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
       <c r="D3080" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71028,10 +70491,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="D3081" t="s">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71045,10 +70508,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5844</v>
+        <v>5845</v>
       </c>
       <c r="D3082" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71062,10 +70525,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="D3083" t="s">
-        <v>5847</v>
+        <v>5848</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71079,10 +70542,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="D3084" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71096,10 +70559,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="D3085" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71113,10 +70576,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="D3086" t="s">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71130,10 +70593,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="D3087" t="s">
-        <v>5855</v>
+        <v>5856</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71147,7 +70610,7 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="D3088" t="s">
         <v>5857</v>
@@ -71320,7 +70783,7 @@
         <v>5876</v>
       </c>
       <c r="D3098" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71334,10 +70797,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="D3099" t="s">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71351,10 +70814,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5878</v>
+        <v>5880</v>
       </c>
       <c r="D3100" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71368,10 +70831,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
       <c r="D3101" t="s">
-        <v>5879</v>
+        <v>5883</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71385,10 +70848,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5880</v>
+        <v>5884</v>
       </c>
       <c r="D3102" t="s">
-        <v>5880</v>
+        <v>5885</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71402,10 +70865,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5881</v>
+        <v>5886</v>
       </c>
       <c r="D3103" t="s">
-        <v>5881</v>
+        <v>5887</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71419,10 +70882,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5882</v>
+        <v>5888</v>
       </c>
       <c r="D3104" t="s">
-        <v>5883</v>
+        <v>5889</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71436,10 +70899,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5884</v>
+        <v>5890</v>
       </c>
       <c r="D3105" t="s">
-        <v>5885</v>
+        <v>5891</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71453,10 +70916,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5886</v>
+        <v>5892</v>
       </c>
       <c r="D3106" t="s">
-        <v>5887</v>
+        <v>5893</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71470,10 +70933,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5888</v>
+        <v>5894</v>
       </c>
       <c r="D3107" t="s">
-        <v>5889</v>
+        <v>5895</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71487,10 +70950,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5890</v>
+        <v>5896</v>
       </c>
       <c r="D3108" t="s">
-        <v>5891</v>
+        <v>5897</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71503,11 +70966,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5892</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5893</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71520,11 +70983,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5899</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71538,10 +71001,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5894</v>
+        <v>5900</v>
       </c>
       <c r="D3111" t="s">
-        <v>5894</v>
+        <v>5901</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71555,10 +71018,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5895</v>
+        <v>5902</v>
       </c>
       <c r="D3112" t="s">
-        <v>5895</v>
+        <v>5903</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71572,10 +71035,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5896</v>
+        <v>5904</v>
       </c>
       <c r="D3113" t="s">
-        <v>5897</v>
+        <v>5905</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71589,10 +71052,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5898</v>
+        <v>5906</v>
       </c>
       <c r="D3114" t="s">
-        <v>5899</v>
+        <v>5907</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71606,10 +71069,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5900</v>
+        <v>5908</v>
       </c>
       <c r="D3115" t="s">
-        <v>5901</v>
+        <v>5909</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71623,10 +71086,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5902</v>
+        <v>5910</v>
       </c>
       <c r="D3116" t="s">
-        <v>5903</v>
+        <v>5911</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71640,10 +71103,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5904</v>
+        <v>5912</v>
       </c>
       <c r="D3117" t="s">
-        <v>5905</v>
+        <v>5913</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71657,10 +71120,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5906</v>
+        <v>5914</v>
       </c>
       <c r="D3118" t="s">
-        <v>5907</v>
+        <v>5914</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71674,1678 +71137,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5908</v>
+        <v>5915</v>
       </c>
       <c r="D3119" t="s">
-        <v>5909</v>
+        <v>5916</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5910</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5911</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5912</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5913</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5914</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5915</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5916</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5917</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5918</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5919</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5920</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5921</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5922</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5923</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5924</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5925</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5926</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5927</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5928</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5929</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5930</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5930</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5931</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5932</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5933</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5934</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5935</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5936</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5937</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5938</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5939</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5940</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5941</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5942</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5943</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5944</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5945</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5946</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5947</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5948</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5949</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5950</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5951</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5952</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5953</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5954</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5955</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>5956</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>5957</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>5958</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>5959</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>5960</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>5961</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>5962</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>5963</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>5964</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2672</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>5966</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>5967</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>5968</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>5969</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>5970</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>5971</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>5972</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>5973</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>5974</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>5975</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>5976</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>5977</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>5978</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>5979</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>5980</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>5981</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>5982</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5804</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>5983</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>5984</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>5985</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>5986</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>5987</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>5988</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>5989</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>5988</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>5990</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>5991</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>5992</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>5994</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>5998</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>3724</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4280</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
